--- a/毕业要求/博士毕业阶段规划.xlsx
+++ b/毕业要求/博士毕业阶段规划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\毕业要求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\thesis\毕业要求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>modulator 论文</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>何老师论文修改完成，开始规划博士论文-目录</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -111,7 +114,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -376,7 +379,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +409,9 @@
       </c>
       <c r="B2" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/毕业要求/博士毕业阶段规划.xlsx
+++ b/毕业要求/博士毕业阶段规划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\thesis\毕业要求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\毕业要求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>modulator 论文</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>1/26/2015-7/2/2015</t>
+  </si>
+  <si>
+    <t>完成毕业论文第一章</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -376,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
@@ -416,14 +422,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -438,10 +449,13 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>

--- a/毕业要求/博士毕业阶段规划.xlsx
+++ b/毕业要求/博士毕业阶段规划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\毕业要求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\thesis\毕业要求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>modulator 论文</t>
   </si>
@@ -60,10 +60,13 @@
     <t>完成</t>
   </si>
   <si>
-    <t>1/26/2015-7/2/2015</t>
-  </si>
-  <si>
-    <t>完成毕业论文第一章</t>
+    <t>补充了micro gear 做调制器的参数，证明了gear 做调制器不可行</t>
+  </si>
+  <si>
+    <t>完成了摘要的中文部分</t>
+  </si>
+  <si>
+    <t>第一章</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -120,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,26 +424,34 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42405</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -452,10 +463,16 @@
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/毕业要求/博士毕业阶段规划.xlsx
+++ b/毕业要求/博士毕业阶段规划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\thesis\毕业要求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\毕业要求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>modulator 论文</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>第一章</t>
+  </si>
+  <si>
+    <t>论文初稿完成</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -388,7 +391,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +457,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
